--- a/AHP V3.xlsx
+++ b/AHP V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\AHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8AC4AA-1147-4FCF-9DCD-7E918FCC2E1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C7E658-DB58-49FF-9623-18EA81D34342}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="2" activeTab="2" xr2:uid="{D93ADF5D-3975-4214-BF44-A1D8C4EE55E4}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
   <si>
     <t>Factor</t>
   </si>
@@ -380,55 +380,64 @@
     <t>DF7</t>
   </si>
   <si>
-    <t>is equally as favorable as</t>
-  </si>
-  <si>
-    <t>is modestly more favorable than</t>
-  </si>
-  <si>
-    <t>is very slightly more favorable than</t>
-  </si>
-  <si>
-    <t>is much more favorable than</t>
-  </si>
-  <si>
-    <t>is greatly more favorable than</t>
-  </si>
-  <si>
-    <t>is very slightly less favorable than</t>
-  </si>
-  <si>
-    <t>is modestly less favorable than</t>
-  </si>
-  <si>
-    <t>is much less favorable than</t>
-  </si>
-  <si>
-    <t>is greatly less favorable than</t>
-  </si>
-  <si>
-    <t>is slightly less favorable than</t>
-  </si>
-  <si>
-    <t>is extremely more favorable than</t>
-  </si>
-  <si>
-    <t>is moderately more favorable than</t>
-  </si>
-  <si>
-    <t>is slightly more favorable than</t>
-  </si>
-  <si>
-    <t>is moderately less favorable than</t>
-  </si>
-  <si>
-    <t>is extremely less favorable than</t>
-  </si>
-  <si>
-    <t>is very greatly more favorable than</t>
-  </si>
-  <si>
-    <t>is very greatly less favorable than</t>
+    <t>is EXTREMELY MORE favorable than</t>
+  </si>
+  <si>
+    <t>is EXCEEDINGLY MORE favorable than</t>
+  </si>
+  <si>
+    <t>is MUCH MORE favorable than</t>
+  </si>
+  <si>
+    <t>is MODERATELY MORE favorable than</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Less</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>is SOMEWHAT MORE favorable than</t>
+  </si>
+  <si>
+    <t>is SLIGHTLY MORE favorable than</t>
+  </si>
+  <si>
+    <t>is VERY SLIGHTLY MORE favorable than</t>
+  </si>
+  <si>
+    <t>is EQUALLY as favorable as</t>
+  </si>
+  <si>
+    <t>is VERY SLIGHTLY LESS favorable than</t>
+  </si>
+  <si>
+    <t>is SLIGHTLY LESS favorable than</t>
+  </si>
+  <si>
+    <t>is SOMEWHAT LESS favorable than</t>
+  </si>
+  <si>
+    <t>is MODERATELY LESS favorable than</t>
+  </si>
+  <si>
+    <t>is MUCH LESS favorable than</t>
+  </si>
+  <si>
+    <t>is EXCEEDINGLY LESS favorable than</t>
+  </si>
+  <si>
+    <t>is EXTREMELY LESS favorable than</t>
+  </si>
+  <si>
+    <t>is VERY MUCH LESS favorable than</t>
+  </si>
+  <si>
+    <t>is VERY MUCH MORE favorable than</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB0DDCB-C0FF-4083-8460-331C971F9CB0}">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,17 +1239,17 @@
     <col min="25" max="25" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1266,7 +1275,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1316,13 +1325,13 @@
         <v>1</v>
       </c>
       <c r="Y4" s="30" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Z4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1369,13 +1378,16 @@
         <v>3</v>
       </c>
       <c r="Y5" s="30" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="Z5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1422,13 +1434,16 @@
         <v>1</v>
       </c>
       <c r="Y6" s="30" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="Z6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1475,360 +1490,363 @@
         <v>1</v>
       </c>
       <c r="Y7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="Z7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>4</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="30" t="s">
+      <c r="Z8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="Z8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="R9">
-        <v>4</v>
-      </c>
-      <c r="S9">
-        <v>3</v>
-      </c>
-      <c r="U9">
-        <v>4</v>
-      </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>5</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>5</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="30" t="s">
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="Z10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="R11">
-        <v>5</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="U11">
-        <v>5</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>5</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>3</v>
-      </c>
-      <c r="R12">
-        <v>5</v>
-      </c>
-      <c r="S12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>5</v>
-      </c>
-      <c r="V12">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>4</v>
-      </c>
-      <c r="R13">
-        <v>5</v>
-      </c>
-      <c r="S13">
-        <v>4</v>
-      </c>
-      <c r="U13">
-        <v>5</v>
-      </c>
-      <c r="V13">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>6</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>6</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>6</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>6</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>6</v>
       </c>
@@ -1872,10 +1890,10 @@
         <v>2</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>6</v>
       </c>
@@ -1919,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="Y16" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="3:25" x14ac:dyDescent="0.25">
@@ -1966,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="3:25" x14ac:dyDescent="0.25">
@@ -2013,7 +2031,7 @@
         <v>5</v>
       </c>
       <c r="Y18" s="30" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="3:25" x14ac:dyDescent="0.25">
@@ -2107,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:25" x14ac:dyDescent="0.25">
@@ -2197,6 +2215,9 @@
       <c r="V22">
         <v>4</v>
       </c>
+      <c r="Y22" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C23">
@@ -2241,9 +2262,7 @@
       <c r="V23">
         <v>5</v>
       </c>
-      <c r="Y23" s="30" t="s">
-        <v>48</v>
-      </c>
+      <c r="Y23" s="30"/>
     </row>
     <row r="24" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C24">
@@ -2288,87 +2307,61 @@
       <c r="V24">
         <v>6</v>
       </c>
-      <c r="Y24" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="Y24" s="30"/>
     </row>
     <row r="25" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="Y25" s="30" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y25" s="30"/>
     </row>
     <row r="26" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="Y26" s="30" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y26" s="30"/>
     </row>
     <row r="27" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="Y27" s="30" t="s">
-        <v>49</v>
-      </c>
+      <c r="Y27" s="30"/>
     </row>
     <row r="28" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="Y28" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="Y28" s="30"/>
     </row>
     <row r="29" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="Y29" s="30" t="s">
-        <v>50</v>
-      </c>
+      <c r="Y29" s="30"/>
     </row>
     <row r="30" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="Y30" s="30" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y30" s="30"/>
     </row>
     <row r="31" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="Y31" s="31" t="s">
-        <v>38</v>
-      </c>
+      <c r="Y31" s="31"/>
     </row>
     <row r="32" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="Y32" s="30" t="s">
-        <v>43</v>
-      </c>
+      <c r="Y32" s="30"/>
     </row>
     <row r="33" spans="25:25" x14ac:dyDescent="0.25">
-      <c r="Y33" s="30" t="s">
-        <v>47</v>
-      </c>
+      <c r="Y33" s="30"/>
     </row>
     <row r="34" spans="25:25" x14ac:dyDescent="0.25">
-      <c r="Y34" s="30" t="s">
-        <v>44</v>
-      </c>
+      <c r="Y34" s="30"/>
     </row>
     <row r="35" spans="25:25" x14ac:dyDescent="0.25">
-      <c r="Y35" s="30" t="s">
-        <v>51</v>
-      </c>
+      <c r="Y35" s="30"/>
     </row>
     <row r="36" spans="25:25" x14ac:dyDescent="0.25">
-      <c r="Y36" s="30" t="s">
-        <v>45</v>
-      </c>
+      <c r="Y36" s="30"/>
     </row>
     <row r="37" spans="25:25" x14ac:dyDescent="0.25">
-      <c r="Y37" s="30" t="s">
-        <v>46</v>
-      </c>
+      <c r="Y37" s="30"/>
     </row>
     <row r="38" spans="25:25" x14ac:dyDescent="0.25">
-      <c r="Y38" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y38" s="30"/>
     </row>
     <row r="39" spans="25:25" x14ac:dyDescent="0.25">
-      <c r="Y39" s="30" t="s">
-        <v>52</v>
-      </c>
+      <c r="Y39" s="30"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y22" xr:uid="{1E9C43C2-A8A0-4014-A52F-B9600A730BD9}">
+      <formula1>$Y$4:$Y$20</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
